--- a/src/analysis_examples/circadb/results_jtk/cosinor_10357191_ptpn4_.xlsx
+++ b/src/analysis_examples/circadb/results_jtk/cosinor_10357191_ptpn4_.xlsx
@@ -589,35 +589,35 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.27777093859019625, 0.3698598139451625]</t>
+          <t>[0.2785090667063588, 0.36912168582899996]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>1.750821709833872e-12</v>
+        <v>1.283195771861756e-12</v>
       </c>
       <c r="N2" t="n">
-        <v>1.750821709833872e-12</v>
+        <v>1.283195771861756e-12</v>
       </c>
       <c r="O2" t="n">
         <v>-0.6289474781961548</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-0.779894872963232, -0.4780000834290776]</t>
+          <t>[-0.767315923399309, -0.49057903299300065]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>2.236530027843742e-08</v>
+        <v>5.142043901784632e-09</v>
       </c>
       <c r="R2" t="n">
-        <v>2.236530027843742e-08</v>
+        <v>5.142043901784632e-09</v>
       </c>
       <c r="S2" t="n">
         <v>0.4222598069008801</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.3982629313817601, 0.44625668242]</t>
+          <t>[0.39826053051119115, 0.44625908329056896]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -630,10 +630,10 @@
         <v>2.753753753753873</v>
       </c>
       <c r="X2" t="n">
-        <v>2.092852852852944</v>
+        <v>2.147927927928021</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.414654654654802</v>
+        <v>3.359579579579726</v>
       </c>
     </row>
   </sheetData>
